--- a/output/fit_clients/fit_round_145.xlsx
+++ b/output/fit_clients/fit_round_145.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2149537300.864213</v>
+        <v>1897584747.36785</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09791297461565854</v>
+        <v>0.1138802899144473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04199122681054015</v>
+        <v>0.04339314053152893</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1074768666.14345</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2545660345.967859</v>
+        <v>1742668318.271481</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1455892729500296</v>
+        <v>0.1481059693209031</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04801840929268566</v>
+        <v>0.041025178251941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1272830297.50491</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5046167321.886734</v>
+        <v>4151477235.607014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1590692132937133</v>
+        <v>0.1643071649764281</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0250567244673065</v>
+        <v>0.03005146475194924</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2523083749.189218</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3297291381.220819</v>
+        <v>2590356871.132023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07014129104306575</v>
+        <v>0.08808184279080861</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04488130229277901</v>
+        <v>0.04553250779297454</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1648645740.723835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2165864912.317606</v>
+        <v>1765553303.177388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1459830590289458</v>
+        <v>0.1394149460083212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04397581823047008</v>
+        <v>0.04738521987715447</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1082932467.764955</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2719897020.675131</v>
+        <v>2698563503.65943</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06409910491939498</v>
+        <v>0.06616483116336302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04564556218248196</v>
+        <v>0.04868483833855611</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1359948502.137788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3285167293.877279</v>
+        <v>3459662853.122944</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1848641159972003</v>
+        <v>0.1584448678992232</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02268236272768446</v>
+        <v>0.02635920426127156</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1642583733.558744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1735199339.149594</v>
+        <v>2042580383.340543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1813063259650252</v>
+        <v>0.1524167968272415</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0271992327264063</v>
+        <v>0.03512193066976289</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>867599732.8847229</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3693498432.216887</v>
+        <v>3712145826.460242</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1797397411554486</v>
+        <v>0.1627576416265819</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03825230933205324</v>
+        <v>0.0381340561498115</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>61</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1846749214.202978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3506771696.252957</v>
+        <v>3027988405.61893</v>
       </c>
       <c r="F11" t="n">
-        <v>0.127468271995289</v>
+        <v>0.1220530354202201</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03227536382570545</v>
+        <v>0.04715363580149064</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>60</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1753385826.412348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2796899509.556715</v>
+        <v>2056913026.938514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1596096930738667</v>
+        <v>0.1888795140201899</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04869738617692082</v>
+        <v>0.03942638938178366</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1398449754.16248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4501244461.768333</v>
+        <v>4175610039.554589</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08671454303936879</v>
+        <v>0.0905797223308798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02302591142263041</v>
+        <v>0.03071565883972328</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>49</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2250622260.315549</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3731969748.951486</v>
+        <v>3430060859.780407</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1558229876158118</v>
+        <v>0.1664120355540437</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04153755667128434</v>
+        <v>0.03706377149872279</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1865984855.881351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1216810683.603657</v>
+        <v>1733044457.940015</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08931544258138086</v>
+        <v>0.09788729446753149</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04055050503929327</v>
+        <v>0.03336729799730641</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>608405363.0599061</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2567439900.255367</v>
+        <v>2091440216.470264</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07723350940908973</v>
+        <v>0.08066052217148739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03521497025904</v>
+        <v>0.04662123674380457</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1283719974.874157</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3219682431.451805</v>
+        <v>3369389844.909471</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1127279563864494</v>
+        <v>0.155245990816213</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0521648568996592</v>
+        <v>0.03636450488135114</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>43</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1609841288.862427</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3906068580.841899</v>
+        <v>2634330070.768671</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1280984411945537</v>
+        <v>0.1482755917130346</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02306480572658724</v>
+        <v>0.02122122910940656</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>48</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1953034255.090385</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1317629122.318206</v>
+        <v>1318634795.339319</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1760435780456618</v>
+        <v>0.1681242342808815</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01962080336945545</v>
+        <v>0.02120040134912882</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>658814667.6497242</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2727442528.870147</v>
+        <v>2136152146.040319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1057209937081467</v>
+        <v>0.1105586691506831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02400584551129904</v>
+        <v>0.03023034017118179</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1363721213.273091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1754692692.930383</v>
+        <v>2302605259.36836</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0950906741349805</v>
+        <v>0.07573725182812079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03193790280209848</v>
+        <v>0.03192399232160702</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>877346405.8309256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2832137219.496692</v>
+        <v>3052913561.826699</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1120307772869854</v>
+        <v>0.08958397751625359</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04932520807301941</v>
+        <v>0.03653468827206402</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1416068681.296598</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1235398331.65358</v>
+        <v>1398493388.717068</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1548931761576968</v>
+        <v>0.1184255755532502</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04251007688671163</v>
+        <v>0.03372977047161473</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>617699196.3057137</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2717018592.493966</v>
+        <v>3705030767.681659</v>
       </c>
       <c r="F24" t="n">
-        <v>0.145847642415309</v>
+        <v>0.1311049333717219</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03721812314819633</v>
+        <v>0.02512118718277888</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1358509350.493304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1475925830.181891</v>
+        <v>1281069455.891769</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1080383308512686</v>
+        <v>0.09719885006834603</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02488298035253087</v>
+        <v>0.02577510642653527</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>737962869.5463039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1193206716.875347</v>
+        <v>1288668881.26359</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09992416176818292</v>
+        <v>0.07875984459389662</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02504651245774038</v>
+        <v>0.02749671612920396</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>596603377.8133765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4301453443.774077</v>
+        <v>3025960332.458</v>
       </c>
       <c r="F27" t="n">
-        <v>0.100526176954865</v>
+        <v>0.1413754319034117</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02380422036074006</v>
+        <v>0.02066590802818952</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2150726717.010303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2702363008.053889</v>
+        <v>3084158701.457366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179045188937593</v>
+        <v>0.1021818419811304</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03474490853541513</v>
+        <v>0.04189025724637511</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>47</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1351181489.36979</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5760717767.056703</v>
+        <v>5246456489.571148</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1210821776241187</v>
+        <v>0.1262563823349704</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03137175954920939</v>
+        <v>0.03252754826358326</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2880358778.379251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2149201441.763072</v>
+        <v>1581221697.376631</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1177157189893218</v>
+        <v>0.1038459260018294</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03895130071089708</v>
+        <v>0.03181775184013828</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1074600775.319824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1313233713.042555</v>
+        <v>1283163177.038723</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1053097009191082</v>
+        <v>0.09203779025933795</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03498251375641614</v>
+        <v>0.03422783141529422</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>656616781.3027526</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1812527602.965547</v>
+        <v>1729501187.045196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07762969326248839</v>
+        <v>0.1192911692590905</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02806090178776205</v>
+        <v>0.02840113475623799</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>906263934.5230147</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2382302173.915434</v>
+        <v>2628180101.493524</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1541789715630632</v>
+        <v>0.1770770070546971</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04535642720700236</v>
+        <v>0.05657255325419414</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>44</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1191151135.163173</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>951877120.4193619</v>
+        <v>1205284036.833695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1159670882645805</v>
+        <v>0.1068985192608241</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02541081925449265</v>
+        <v>0.0228477903506311</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>475938605.9609048</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1118142967.779059</v>
+        <v>1140260551.571211</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0976550435947706</v>
+        <v>0.07381941515938718</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0437242474442912</v>
+        <v>0.04021878584525302</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>559071476.5268389</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2059798776.693548</v>
+        <v>2367282892.774283</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1741173538601977</v>
+        <v>0.1646248169712023</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01809696084067013</v>
+        <v>0.02449343607978973</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1029899445.561524</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2681070277.612203</v>
+        <v>2295831624.391562</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0822836400699752</v>
+        <v>0.0802313532596997</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02884420016133237</v>
+        <v>0.03230814163703856</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>40</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1340535259.763426</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1658822147.592466</v>
+        <v>1786490395.111043</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1135373464895674</v>
+        <v>0.1024738068393055</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02877113401470183</v>
+        <v>0.02784296152786579</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>829411100.5768656</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2163749223.941935</v>
+        <v>1852926835.831391</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1401594208005098</v>
+        <v>0.1264609086486403</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0230210708864854</v>
+        <v>0.02349473351266058</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1081874581.597364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1412937297.27246</v>
+        <v>1103203159.181432</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1572158661127442</v>
+        <v>0.1089520924840214</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0463884457346606</v>
+        <v>0.06037902640675868</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>706468636.5919904</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2929506085.939511</v>
+        <v>2593033961.759753</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1122061030920917</v>
+        <v>0.1220452492164887</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03087071044343991</v>
+        <v>0.03761704984832776</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>35</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1464753026.132757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3217768043.87469</v>
+        <v>4196034746.979429</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012980069516429</v>
+        <v>0.107913320658816</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03719759020847031</v>
+        <v>0.02816623639685204</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>50</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1608883997.326369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2115961762.515365</v>
+        <v>1902501752.048758</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1628717737529527</v>
+        <v>0.1589643968247506</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02203849916403675</v>
+        <v>0.01685442591804107</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>48</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1057980968.477415</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1461814661.626021</v>
+        <v>1981911131.378447</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06327799968532462</v>
+        <v>0.08907882154595301</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02761921167110469</v>
+        <v>0.03371888571334208</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>730907329.7257481</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2069849146.283847</v>
+        <v>1585260346.844561</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1609554895257838</v>
+        <v>0.1582599610395304</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05473998767850565</v>
+        <v>0.04055818435442526</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1034924571.039125</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4105820156.909766</v>
+        <v>3847903968.538317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1237356487357482</v>
+        <v>0.1211940761205659</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06069358576419782</v>
+        <v>0.05290202032814756</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>52</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2052910054.004877</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4807832750.684987</v>
+        <v>3962490916.820616</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2009954290623761</v>
+        <v>0.1834887385727755</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05957549138748147</v>
+        <v>0.05285806712552014</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>39</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2403916420.204938</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2922741864.031459</v>
+        <v>3302912383.321787</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06683233267529433</v>
+        <v>0.07768379784925251</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03895875118513374</v>
+        <v>0.03122508195521588</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1461371028.972114</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1516710906.125515</v>
+        <v>1333663492.783087</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1683914514318594</v>
+        <v>0.1614684462415447</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02961128762395071</v>
+        <v>0.02827093247917995</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>758355482.4613099</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2553233450.87522</v>
+        <v>3396171647.245636</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1621299849462064</v>
+        <v>0.1445930812543375</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03955299622919557</v>
+        <v>0.05219738371389678</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>49</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1276616817.02666</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1161960421.807029</v>
+        <v>1410804395.140607</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1279649164631337</v>
+        <v>0.1312770121332324</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04425429230963273</v>
+        <v>0.05402229819517496</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>580980268.5630512</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4989294721.409231</v>
+        <v>5290269436.92863</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1300601591965658</v>
+        <v>0.1190553274050671</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05133292773337513</v>
+        <v>0.04963663869517389</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>60</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2494647358.915163</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2515749358.422535</v>
+        <v>3378884592.701107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1946598984763825</v>
+        <v>0.1392601118272435</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03286008555553897</v>
+        <v>0.03106977543419726</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>41</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1257874745.068942</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4523785515.840595</v>
+        <v>4210631189.676898</v>
       </c>
       <c r="F54" t="n">
-        <v>0.102075838748568</v>
+        <v>0.1349098800925676</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05241371298633398</v>
+        <v>0.03440171429675075</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2261892863.09477</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3991272897.830279</v>
+        <v>3778481025.743802</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2138098916212783</v>
+        <v>0.197992094490155</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02621938533227572</v>
+        <v>0.02145469065631656</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1995636423.378726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1478551993.378627</v>
+        <v>1162126783.787632</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1059735568098274</v>
+        <v>0.1555161152251717</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05026389658221532</v>
+        <v>0.0505774055888041</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>739276042.0525256</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3302829191.61398</v>
+        <v>4283502061.384086</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1784546962209235</v>
+        <v>0.1512461720118781</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01942301952345316</v>
+        <v>0.02475337390012214</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>47</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1651414625.591383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1174931727.922714</v>
+        <v>1853251495.689744</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1760460616556902</v>
+        <v>0.1947995230684693</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0250219589506049</v>
+        <v>0.02737993553980851</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>587465924.7171332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3594371306.044763</v>
+        <v>5178936397.691016</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08213689479218567</v>
+        <v>0.1014742662754905</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04135982099156174</v>
+        <v>0.03694319147225757</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1797185648.495103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3547225592.683091</v>
+        <v>2773119947.454303</v>
       </c>
       <c r="F60" t="n">
-        <v>0.18666827880436</v>
+        <v>0.1367243158358639</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02642764615827052</v>
+        <v>0.02973096692763676</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1773612924.043238</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3302531840.801569</v>
+        <v>2496706720.488797</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1691083599667956</v>
+        <v>0.1346778171711368</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0209452826479613</v>
+        <v>0.02627327702283626</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>52</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1651265872.30078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1508352906.164742</v>
+        <v>1752631102.34972</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1813904127254681</v>
+        <v>0.1242143925568502</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03475441384260882</v>
+        <v>0.03854904244699903</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>754176437.3490766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3659254975.979163</v>
+        <v>3782322642.378202</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07218150140054802</v>
+        <v>0.07795482982208235</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03687434801231359</v>
+        <v>0.03792272699547425</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1829627565.532861</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4183659408.436949</v>
+        <v>5200838888.959274</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1766144376680631</v>
+        <v>0.183502260575955</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02382032334742939</v>
+        <v>0.02289447830479571</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>45</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2091829752.954113</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4470692030.191475</v>
+        <v>4027246742.486455</v>
       </c>
       <c r="F65" t="n">
-        <v>0.150568052347364</v>
+        <v>0.1148441143003761</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02425334846432644</v>
+        <v>0.03025226408210038</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>52</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2235346005.545027</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4072659743.36737</v>
+        <v>4971063853.926332</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1300446123167164</v>
+        <v>0.1466959825910178</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0366564513383585</v>
+        <v>0.04439585648379023</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>42</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2036329849.15278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3213817226.199649</v>
+        <v>3034566546.044763</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08154621085604154</v>
+        <v>0.09086898876171208</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03855291599923621</v>
+        <v>0.03481853725927112</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1606908613.230651</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5834653234.410766</v>
+        <v>4546786179.153546</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1090506369564825</v>
+        <v>0.1345608121597107</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04891617619617257</v>
+        <v>0.03841975005024948</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>46</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2917326724.120902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1549008772.952544</v>
+        <v>1878536038.475539</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1692288751361314</v>
+        <v>0.1113130910869739</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05434860300127306</v>
+        <v>0.04177844149571302</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>774504333.1056008</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3504000791.552925</v>
+        <v>2725516955.233297</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07887300465133297</v>
+        <v>0.1023340339603281</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03071057313904659</v>
+        <v>0.03369672397974303</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1752000405.581492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4354923235.978689</v>
+        <v>4386029432.443295</v>
       </c>
       <c r="F71" t="n">
-        <v>0.134460107897811</v>
+        <v>0.1181222492403677</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03247011876633123</v>
+        <v>0.02278714926337121</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>53</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2177461675.516799</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2187709296.446128</v>
+        <v>1777187728.766055</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07387053179367105</v>
+        <v>0.09389048243759884</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05062592071811845</v>
+        <v>0.03982024122888546</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1093854564.266806</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3328572337.093817</v>
+        <v>3204229081.523892</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09719977891096941</v>
+        <v>0.06995834593257839</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04389252157005498</v>
+        <v>0.0353987406308782</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>55</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1664286134.401933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3708144515.7284</v>
+        <v>2968120659.430425</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1337834614856969</v>
+        <v>0.1845174908877664</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03198508609974095</v>
+        <v>0.02720845147147994</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>50</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1854072262.019046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1672120072.455802</v>
+        <v>2117927903.617086</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1341942992654593</v>
+        <v>0.1472842494519005</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02558216079064117</v>
+        <v>0.02416921470524063</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>836060031.0853382</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4193403867.120675</v>
+        <v>4219396456.515841</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08774788253131603</v>
+        <v>0.07767300730514251</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03253942946895914</v>
+        <v>0.02275813545144631</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>32</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2096701926.36062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1705168742.31014</v>
+        <v>1990199527.871612</v>
       </c>
       <c r="F77" t="n">
-        <v>0.132217211493624</v>
+        <v>0.1597924716275534</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03127811141274895</v>
+        <v>0.02965840451726509</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>852584389.0674883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3419762812.52606</v>
+        <v>3201802656.374943</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1264358791714835</v>
+        <v>0.1174167129976938</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04960755949067989</v>
+        <v>0.03550080174863903</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>52</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1709881413.452083</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1883100884.143789</v>
+        <v>1161206783.113373</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1437150287355303</v>
+        <v>0.1396183243742312</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02673258299733664</v>
+        <v>0.02497862256018129</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>941550543.2235265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5499955500.60661</v>
+        <v>4952393063.965889</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08209042038254055</v>
+        <v>0.08278637563103559</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03481444413359323</v>
+        <v>0.03729072071089823</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2749977824.324492</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3142965501.887891</v>
+        <v>4052289644.628407</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09647110508683768</v>
+        <v>0.08575513465677459</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03122825989211407</v>
+        <v>0.03178444914145425</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1571482682.250612</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4590053836.250735</v>
+        <v>4516413829.323775</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1556192862869434</v>
+        <v>0.2064406719944152</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02516002026617144</v>
+        <v>0.01984369776198766</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2295026924.930605</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1754978839.049181</v>
+        <v>2027387235.538427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09860433143646821</v>
+        <v>0.1321579931144298</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0300085566556164</v>
+        <v>0.03522954429286192</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>877489374.2945549</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2382900455.214041</v>
+        <v>1971071299.642281</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08135843691197062</v>
+        <v>0.1156712213687643</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05009196736640827</v>
+        <v>0.03694249699753317</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1191450176.523139</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2483300798.731308</v>
+        <v>2695069005.206069</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1826596220417838</v>
+        <v>0.1413342914654124</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03983222487674912</v>
+        <v>0.04573222676067398</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>55</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1241650402.43679</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1842609399.541461</v>
+        <v>2130333603.431495</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1716780419998584</v>
+        <v>0.1209682491405134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0238156799781463</v>
+        <v>0.02740612445785435</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>921304705.4470088</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1255071002.149266</v>
+        <v>968074167.5559325</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1325459504804732</v>
+        <v>0.1706508754649907</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04160612397559606</v>
+        <v>0.03930002547793805</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>627535570.7289774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2247708765.847788</v>
+        <v>3504468013.029816</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1380208159048208</v>
+        <v>0.1699665791130823</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03305220677013605</v>
+        <v>0.03170404311042551</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>57</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1123854338.991698</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3305468934.373438</v>
+        <v>3141526692.364883</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1326347991084982</v>
+        <v>0.1187917356110496</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02656468648317932</v>
+        <v>0.0342276420953955</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>51</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1652734482.86517</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2085060073.518569</v>
+        <v>2009774236.223267</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1154590600244207</v>
+        <v>0.1006485532854496</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04346070595271002</v>
+        <v>0.04518275549225186</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1042530122.504556</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1548499624.935042</v>
+        <v>2025448066.876611</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1469669678360615</v>
+        <v>0.1279074178166381</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05018379166252366</v>
+        <v>0.0476177843667723</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>774249844.8962376</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2283198689.036282</v>
+        <v>2486745819.073061</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07799138172604722</v>
+        <v>0.07107693688490448</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03510987110505635</v>
+        <v>0.03944084901004961</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1141599312.075547</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3340487312.011668</v>
+        <v>4037242996.418295</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1036176896930261</v>
+        <v>0.139192639983404</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05338610412849541</v>
+        <v>0.0409542427140089</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1670243699.205422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2288604467.038913</v>
+        <v>1662051225.626949</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1122573764285622</v>
+        <v>0.1374669498008111</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02931387418805744</v>
+        <v>0.03597577112284215</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1144302269.449961</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2035000842.502618</v>
+        <v>2086812050.847719</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1345740231484133</v>
+        <v>0.1084661555850401</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03190545326696851</v>
+        <v>0.0519405992661027</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>35</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1017500491.126019</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1508240742.723327</v>
+        <v>1938491821.932809</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1199272440438748</v>
+        <v>0.1325886587658069</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03786168311975715</v>
+        <v>0.03521118182491048</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>754120410.7969738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4818535004.587644</v>
+        <v>3344291365.56875</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1713226749097111</v>
+        <v>0.12445518017334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01765311228369783</v>
+        <v>0.022335261443846</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2409267624.454037</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2909735734.089828</v>
+        <v>2966629876.875101</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1082063736362411</v>
+        <v>0.08330572400880193</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0303712524610255</v>
+        <v>0.03206091131591823</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>38</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1454867845.580676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3181042869.208104</v>
+        <v>2771691048.006268</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1299287655011766</v>
+        <v>0.1365285051706785</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02328525549814301</v>
+        <v>0.0322758312370605</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>45</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1590521433.641042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3489824259.964829</v>
+        <v>3097197449.155937</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1403887340481259</v>
+        <v>0.1779465236220311</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02672156893189798</v>
+        <v>0.0200437187231417</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>44</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1744912159.897914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3033486943.517409</v>
+        <v>3190553585.763713</v>
       </c>
       <c r="F101" t="n">
-        <v>0.196306654478637</v>
+        <v>0.1793754877938162</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04587846552969844</v>
+        <v>0.05332822333605657</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>60</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1516743565.176367</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_145.xlsx
+++ b/output/fit_clients/fit_round_145.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1897584747.36785</v>
+        <v>2329659338.883492</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1138802899144473</v>
+        <v>0.08238560252256863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04339314053152893</v>
+        <v>0.03903761981379902</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1742668318.271481</v>
+        <v>2544230261.284837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1481059693209031</v>
+        <v>0.1682761161381098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.041025178251941</v>
+        <v>0.03267533987690558</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4151477235.607014</v>
+        <v>4132506748.868103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1643071649764281</v>
+        <v>0.1634091143921415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03005146475194924</v>
+        <v>0.03717731576699145</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2590356871.132023</v>
+        <v>3039986559.212156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08808184279080861</v>
+        <v>0.09386355786399193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04553250779297454</v>
+        <v>0.03773346216169027</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1765553303.177388</v>
+        <v>2735762720.454817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1394149460083212</v>
+        <v>0.1387144166082108</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04738521987715447</v>
+        <v>0.05275974731296172</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2698563503.65943</v>
+        <v>2833968212.292426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06616483116336302</v>
+        <v>0.07477035741212743</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04868483833855611</v>
+        <v>0.04182020360533989</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3459662853.122944</v>
+        <v>2973544330.85194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1584448678992232</v>
+        <v>0.159837649678062</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02635920426127156</v>
+        <v>0.02954898410613599</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2042580383.340543</v>
+        <v>1931997121.227135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1524167968272415</v>
+        <v>0.1725503486329539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03512193066976289</v>
+        <v>0.03153881750882944</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3712145826.460242</v>
+        <v>5426685806.142292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627576416265819</v>
+        <v>0.1407059495397414</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0381340561498115</v>
+        <v>0.03723411329093629</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3027988405.61893</v>
+        <v>4235142662.123758</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1220530354202201</v>
+        <v>0.1618096894472474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04715363580149064</v>
+        <v>0.04388838766754247</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2056913026.938514</v>
+        <v>2099749165.402088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1888795140201899</v>
+        <v>0.1373757917887355</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03942638938178366</v>
+        <v>0.05383336057716997</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4175610039.554589</v>
+        <v>4902906492.452523</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0905797223308798</v>
+        <v>0.06901167626452355</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03071565883972328</v>
+        <v>0.02589057544383624</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3430060859.780407</v>
+        <v>3342537329.762013</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1664120355540437</v>
+        <v>0.160131894548784</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03706377149872279</v>
+        <v>0.03320243769477531</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1733044457.940015</v>
+        <v>1681653520.993009</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09788729446753149</v>
+        <v>0.07816219556937259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03336729799730641</v>
+        <v>0.03077734710576292</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2091440216.470264</v>
+        <v>1766582566.305614</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08066052217148739</v>
+        <v>0.08396738001641685</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04662123674380457</v>
+        <v>0.03186429919112078</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3369389844.909471</v>
+        <v>5266828554.102817</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155245990816213</v>
+        <v>0.138483649070246</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03636450488135114</v>
+        <v>0.03847504077431299</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2634330070.768671</v>
+        <v>3022435742.404841</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1482755917130346</v>
+        <v>0.1474005987658304</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02122122910940656</v>
+        <v>0.03315670418434332</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1318634795.339319</v>
+        <v>1181642838.268547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1681242342808815</v>
+        <v>0.1445870264331182</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02120040134912882</v>
+        <v>0.01725670018371037</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2136152146.040319</v>
+        <v>2622385426.470725</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1105586691506831</v>
+        <v>0.1425012305565802</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03023034017118179</v>
+        <v>0.02750919586456189</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2302605259.36836</v>
+        <v>2280866798.829346</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07573725182812079</v>
+        <v>0.07525731263866239</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03192399232160702</v>
+        <v>0.04348561143439755</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3052913561.826699</v>
+        <v>3075327938.698825</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08958397751625359</v>
+        <v>0.1065668319907378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03653468827206402</v>
+        <v>0.03472195225049975</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1398493388.717068</v>
+        <v>1344301786.222633</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1184255755532502</v>
+        <v>0.1482804048797766</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03372977047161473</v>
+        <v>0.03377795459878841</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3705030767.681659</v>
+        <v>2872959890.625123</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1311049333717219</v>
+        <v>0.1444411745620887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02512118718277888</v>
+        <v>0.02847164994278438</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1281069455.891769</v>
+        <v>1467649373.806948</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09719885006834603</v>
+        <v>0.115375571680838</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02577510642653527</v>
+        <v>0.01955321932514468</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1288668881.26359</v>
+        <v>1094153244.164927</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07875984459389662</v>
+        <v>0.07995455799391937</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02749671612920396</v>
+        <v>0.02958058379803372</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3025960332.458</v>
+        <v>3752807683.409621</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1413754319034117</v>
+        <v>0.1555860762605065</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02066590802818952</v>
+        <v>0.02051575582898396</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3084158701.457366</v>
+        <v>3130762058.186401</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1021818419811304</v>
+        <v>0.1465973262901464</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04189025724637511</v>
+        <v>0.03981514997774638</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5246456489.571148</v>
+        <v>4632970333.466187</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1262563823349704</v>
+        <v>0.1393105627000926</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03252754826358326</v>
+        <v>0.02971102904382337</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1581221697.376631</v>
+        <v>1923928864.189996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1038459260018294</v>
+        <v>0.1353104892103497</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03181775184013828</v>
+        <v>0.02603324097556285</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1283163177.038723</v>
+        <v>1468828259.407355</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09203779025933795</v>
+        <v>0.07259372764611056</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03422783141529422</v>
+        <v>0.03328948971157094</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1729501187.045196</v>
+        <v>1330694796.172915</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1192911692590905</v>
+        <v>0.1192521241996872</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02840113475623799</v>
+        <v>0.03570356397104305</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2628180101.493524</v>
+        <v>3070546316.551374</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1770770070546971</v>
+        <v>0.1740267258639603</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05657255325419414</v>
+        <v>0.04297838800273876</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1205284036.833695</v>
+        <v>1301937686.967868</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1068985192608241</v>
+        <v>0.07982050351099938</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0228477903506311</v>
+        <v>0.02312416546093008</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1140260551.571211</v>
+        <v>893223470.1935523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07381941515938718</v>
+        <v>0.08492920919480242</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04021878584525302</v>
+        <v>0.03049221908721921</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2367282892.774283</v>
+        <v>3069574804.842403</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1646248169712023</v>
+        <v>0.1472629839315846</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02449343607978973</v>
+        <v>0.02738959850768366</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2295831624.391562</v>
+        <v>2373134714.555713</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0802313532596997</v>
+        <v>0.09164113404519532</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03230814163703856</v>
+        <v>0.03074950897090326</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1786490395.111043</v>
+        <v>1389292056.499634</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1024738068393055</v>
+        <v>0.09272963987295889</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02784296152786579</v>
+        <v>0.02830783385301385</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1852926835.831391</v>
+        <v>1582478640.827074</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1264609086486403</v>
+        <v>0.1862451594777715</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02349473351266058</v>
+        <v>0.02665902358757372</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1103203159.181432</v>
+        <v>1313882425.939885</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1089520924840214</v>
+        <v>0.1289523111804807</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06037902640675868</v>
+        <v>0.03643530837384894</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2593033961.759753</v>
+        <v>2739252504.954385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1220452492164887</v>
+        <v>0.1477482097412035</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03761704984832776</v>
+        <v>0.03276879400781046</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4196034746.979429</v>
+        <v>4019026967.842176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.107913320658816</v>
+        <v>0.1253432330185228</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02816623639685204</v>
+        <v>0.04293482201278886</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1902501752.048758</v>
+        <v>2106986617.694991</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1589643968247506</v>
+        <v>0.2032371023742749</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01685442591804107</v>
+        <v>0.02076167653245605</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1981911131.378447</v>
+        <v>1883349785.621691</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08907882154595301</v>
+        <v>0.06313109530407689</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03371888571334208</v>
+        <v>0.03279687292850403</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1585260346.844561</v>
+        <v>1686550203.064047</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1582599610395304</v>
+        <v>0.1535428668134856</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04055818435442526</v>
+        <v>0.04399181640272793</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3847903968.538317</v>
+        <v>4426998167.136667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1211940761205659</v>
+        <v>0.1101238839673285</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05290202032814756</v>
+        <v>0.05943087047511698</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3962490916.820616</v>
+        <v>5126439786.579867</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1834887385727755</v>
+        <v>0.1605198443156469</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05285806712552014</v>
+        <v>0.03820515383506494</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3302912383.321787</v>
+        <v>3420806568.093898</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07768379784925251</v>
+        <v>0.1012204527720729</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03122508195521588</v>
+        <v>0.03365746852637203</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1333663492.783087</v>
+        <v>1665656363.518478</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1614684462415447</v>
+        <v>0.1779086868680988</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02827093247917995</v>
+        <v>0.0414504586363126</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3396171647.245636</v>
+        <v>3196800438.936452</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1445930812543375</v>
+        <v>0.1353463308234674</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05219738371389678</v>
+        <v>0.03431833555518418</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1410804395.140607</v>
+        <v>975211949.4395208</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1312770121332324</v>
+        <v>0.1477694363050694</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05402229819517496</v>
+        <v>0.03628313924947865</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5290269436.92863</v>
+        <v>5144198576.892388</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190553274050671</v>
+        <v>0.1120079406929483</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04963663869517389</v>
+        <v>0.05977177497583351</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3378884592.701107</v>
+        <v>3151384918.144946</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1392601118272435</v>
+        <v>0.1456624071690852</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03106977543419726</v>
+        <v>0.0348191960412651</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4210631189.676898</v>
+        <v>4090835492.80942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1349098800925676</v>
+        <v>0.1294403047489433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03440171429675075</v>
+        <v>0.04761350765735733</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3778481025.743802</v>
+        <v>4150819489.252309</v>
       </c>
       <c r="F55" t="n">
-        <v>0.197992094490155</v>
+        <v>0.1590722071822361</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02145469065631656</v>
+        <v>0.02763417900824458</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1162126783.787632</v>
+        <v>1694321716.861922</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1555161152251717</v>
+        <v>0.1200022123064695</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0505774055888041</v>
+        <v>0.04499181180704241</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4283502061.384086</v>
+        <v>3633153535.816469</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1512461720118781</v>
+        <v>0.1297334090126935</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02475337390012214</v>
+        <v>0.02265845183487014</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1853251495.689744</v>
+        <v>1321600308.091591</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1947995230684693</v>
+        <v>0.134295966706682</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02737993553980851</v>
+        <v>0.03218573491305082</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5178936397.691016</v>
+        <v>3283745716.159025</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1014742662754905</v>
+        <v>0.1170310166315595</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03694319147225757</v>
+        <v>0.04609581329729662</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2773119947.454303</v>
+        <v>3711198422.499675</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1367243158358639</v>
+        <v>0.1854975778641797</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02973096692763676</v>
+        <v>0.02523771802030434</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2496706720.488797</v>
+        <v>2487236433.22899</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1346778171711368</v>
+        <v>0.1512191877508591</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02627327702283626</v>
+        <v>0.02389288831197748</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1752631102.34972</v>
+        <v>1750756598.717374</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1242143925568502</v>
+        <v>0.130178411100287</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03854904244699903</v>
+        <v>0.04094611423380958</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3782322642.378202</v>
+        <v>4751879645.833496</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07795482982208235</v>
+        <v>0.09511735194851034</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03792272699547425</v>
+        <v>0.03204541695977469</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5200838888.959274</v>
+        <v>4133248832.752087</v>
       </c>
       <c r="F64" t="n">
-        <v>0.183502260575955</v>
+        <v>0.1484301866179633</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02289447830479571</v>
+        <v>0.02722199556910193</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4027246742.486455</v>
+        <v>4777913425.806007</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1148441143003761</v>
+        <v>0.1158039523464891</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03025226408210038</v>
+        <v>0.03222905568398524</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4971063853.926332</v>
+        <v>5594680038.341979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1466959825910178</v>
+        <v>0.1446975605798589</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04439585648379023</v>
+        <v>0.03854485566173578</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3034566546.044763</v>
+        <v>3091167455.327124</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09086898876171208</v>
+        <v>0.09084297960902052</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03481853725927112</v>
+        <v>0.05090604724578945</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4546786179.153546</v>
+        <v>3702725334.103867</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1345608121597107</v>
+        <v>0.1297923486056217</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03841975005024948</v>
+        <v>0.03137391162878234</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1878536038.475539</v>
+        <v>1522615141.128519</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1113130910869739</v>
+        <v>0.1570421537230321</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04177844149571302</v>
+        <v>0.04757063235018034</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2725516955.233297</v>
+        <v>2697954230.752403</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1023340339603281</v>
+        <v>0.06449894137061829</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03369672397974303</v>
+        <v>0.03171208420438772</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4386029432.443295</v>
+        <v>3571805073.303585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1181222492403677</v>
+        <v>0.162011067907763</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02278714926337121</v>
+        <v>0.02806305571044155</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1777187728.766055</v>
+        <v>2151045495.931672</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09389048243759884</v>
+        <v>0.0920762259472787</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03982024122888546</v>
+        <v>0.04595955325798939</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3204229081.523892</v>
+        <v>2355694362.588905</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06995834593257839</v>
+        <v>0.08161333994245265</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0353987406308782</v>
+        <v>0.04596581915336142</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2968120659.430425</v>
+        <v>2448105894.302796</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1845174908877664</v>
+        <v>0.1583037012365384</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02720845147147994</v>
+        <v>0.03450975006004314</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2117927903.617086</v>
+        <v>1815574084.288918</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1472842494519005</v>
+        <v>0.144466746109676</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02416921470524063</v>
+        <v>0.02948936480625264</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4219396456.515841</v>
+        <v>4227473362.572208</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07767300730514251</v>
+        <v>0.09618631805332578</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02275813545144631</v>
+        <v>0.03303198911733352</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1990199527.871612</v>
+        <v>2245057958.355743</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1597924716275534</v>
+        <v>0.1138675683905534</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02965840451726509</v>
+        <v>0.02085837170363577</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3201802656.374943</v>
+        <v>3732453334.466333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1174167129976938</v>
+        <v>0.1335191800167995</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03550080174863903</v>
+        <v>0.04755709364548918</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1161206783.113373</v>
+        <v>1807889986.170359</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1396183243742312</v>
+        <v>0.1294559831615816</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02497862256018129</v>
+        <v>0.0274474162138494</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4952393063.965889</v>
+        <v>5452789703.572391</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08278637563103559</v>
+        <v>0.09013274955358772</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03729072071089823</v>
+        <v>0.03000313064344421</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4052289644.628407</v>
+        <v>3620632675.993048</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08575513465677459</v>
+        <v>0.1124640430990388</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03178444914145425</v>
+        <v>0.02691307181223074</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4516413829.323775</v>
+        <v>5280060092.701193</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2064406719944152</v>
+        <v>0.1885797802370348</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01984369776198766</v>
+        <v>0.01778373817160284</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2027387235.538427</v>
+        <v>1597504672.636201</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1321579931144298</v>
+        <v>0.09680354675092244</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03522954429286192</v>
+        <v>0.04246309902540443</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1971071299.642281</v>
+        <v>1930305583.984664</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156712213687643</v>
+        <v>0.09687687532221477</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03694249699753317</v>
+        <v>0.03830386243348786</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2695069005.206069</v>
+        <v>3007750988.183199</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1413342914654124</v>
+        <v>0.1278870110499553</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04573222676067398</v>
+        <v>0.05195089158710007</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2130333603.431495</v>
+        <v>2375130311.601396</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1209682491405134</v>
+        <v>0.1329109922148489</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02740612445785435</v>
+        <v>0.02461768783601701</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>968074167.5559325</v>
+        <v>1303964997.914462</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1706508754649907</v>
+        <v>0.1527638241087209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03930002547793805</v>
+        <v>0.03255704983744849</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3504468013.029816</v>
+        <v>3571460140.860144</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1699665791130823</v>
+        <v>0.114792570649572</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03170404311042551</v>
+        <v>0.02603299614623598</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3141526692.364883</v>
+        <v>3510548028.630148</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1187917356110496</v>
+        <v>0.1002835911051112</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0342276420953955</v>
+        <v>0.03332339975655361</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2009774236.223267</v>
+        <v>2011226092.46347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1006485532854496</v>
+        <v>0.1167764719770965</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04518275549225186</v>
+        <v>0.04471647527336829</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2025448066.876611</v>
+        <v>1955681683.8873</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1279074178166381</v>
+        <v>0.1769763582790576</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0476177843667723</v>
+        <v>0.0425141973901175</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2486745819.073061</v>
+        <v>2379059004.940756</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07107693688490448</v>
+        <v>0.08680265595758554</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03944084901004961</v>
+        <v>0.04291692279432757</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4037242996.418295</v>
+        <v>3864214449.099268</v>
       </c>
       <c r="F93" t="n">
-        <v>0.139192639983404</v>
+        <v>0.09181748720863352</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0409542427140089</v>
+        <v>0.04286558580118371</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1662051225.626949</v>
+        <v>1716062905.292797</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1374669498008111</v>
+        <v>0.1443010491913153</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03597577112284215</v>
+        <v>0.03278398985495414</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2086812050.847719</v>
+        <v>2561615170.351909</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1084661555850401</v>
+        <v>0.1316217780475689</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0519405992661027</v>
+        <v>0.03442635250386577</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1938491821.932809</v>
+        <v>2239133579.982831</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1325886587658069</v>
+        <v>0.1250999459102584</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03521118182491048</v>
+        <v>0.03626473086811596</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3344291365.56875</v>
+        <v>4626835483.257111</v>
       </c>
       <c r="F97" t="n">
-        <v>0.12445518017334</v>
+        <v>0.1289265319110156</v>
       </c>
       <c r="G97" t="n">
-        <v>0.022335261443846</v>
+        <v>0.02423547612569619</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2966629876.875101</v>
+        <v>3168034177.001848</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08330572400880193</v>
+        <v>0.09999272601682245</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03206091131591823</v>
+        <v>0.0309981582458371</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2771691048.006268</v>
+        <v>3132738139.672544</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1365285051706785</v>
+        <v>0.1350531819057762</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0322758312370605</v>
+        <v>0.02255265947536362</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3097197449.155937</v>
+        <v>4523689404.89486</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1779465236220311</v>
+        <v>0.1554040856397602</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0200437187231417</v>
+        <v>0.02182998197099167</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3190553585.763713</v>
+        <v>2390129386.002547</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1793754877938162</v>
+        <v>0.1619978851473174</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05332822333605657</v>
+        <v>0.04115420529187916</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_145.xlsx
+++ b/output/fit_clients/fit_round_145.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329659338.883492</v>
+        <v>1799118869.144653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08238560252256863</v>
+        <v>0.1075646408556893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03903761981379902</v>
+        <v>0.03939176981344227</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2544230261.284837</v>
+        <v>1889261770.268343</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1682761161381098</v>
+        <v>0.1564010393901739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03267533987690558</v>
+        <v>0.03168388867957049</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4132506748.868103</v>
+        <v>3574092822.087244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1634091143921415</v>
+        <v>0.1176523854561729</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03717731576699145</v>
+        <v>0.02374052588133039</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>144</v>
+      </c>
+      <c r="K4" t="n">
+        <v>135.5875593560504</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3039986559.212156</v>
+        <v>3089854947.098552</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09386355786399193</v>
+        <v>0.1108012696146524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03773346216169027</v>
+        <v>0.0317747912814456</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
+        <v>141</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2735762720.454817</v>
+        <v>2151098791.444687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1387144166082108</v>
+        <v>0.1058784120162766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05275974731296172</v>
+        <v>0.05178934811699065</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2833968212.292426</v>
+        <v>2395172419.294474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07477035741212743</v>
+        <v>0.07097992261084199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04182020360533989</v>
+        <v>0.04960462636732618</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2973544330.85194</v>
+        <v>3041192727.995755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.159837649678062</v>
+        <v>0.1800706666942835</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02954898410613599</v>
+        <v>0.02677686708929598</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="n">
+        <v>98.91222265550286</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1931997121.227135</v>
+        <v>1851457870.680488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1725503486329539</v>
+        <v>0.1436778098243426</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03153881750882944</v>
+        <v>0.02479205559789337</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5426685806.142292</v>
+        <v>4674624119.652421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1407059495397414</v>
+        <v>0.1696205567021551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03723411329093629</v>
+        <v>0.04165833205201669</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>145</v>
+      </c>
+      <c r="K10" t="n">
+        <v>153.6355987686937</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4235142662.123758</v>
+        <v>3228882620.820023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1618096894472474</v>
+        <v>0.1883705285233147</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04388838766754247</v>
+        <v>0.04305529441492403</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>142</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,22 +851,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2099749165.402088</v>
+        <v>2831731594.176052</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1373757917887355</v>
+        <v>0.1706517559931809</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05383336057716997</v>
+        <v>0.04316390337460067</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="n">
+        <v>88.37993381147751</v>
       </c>
     </row>
     <row r="13">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4902906492.452523</v>
+        <v>4684584805.27117</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06901167626452355</v>
+        <v>0.1016610794087707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02589057544383624</v>
+        <v>0.02794501251934776</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>70</v>
+      </c>
+      <c r="J13" t="n">
+        <v>145</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3342537329.762013</v>
+        <v>2578338340.333415</v>
       </c>
       <c r="F14" t="n">
-        <v>0.160131894548784</v>
+        <v>0.1426853215055563</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03320243769477531</v>
+        <v>0.03157247003397589</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1681653520.993009</v>
+        <v>1477122775.445315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07816219556937259</v>
+        <v>0.08877463053756063</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03077734710576292</v>
+        <v>0.03742916904471598</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766582566.305614</v>
+        <v>2815120396.206316</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08396738001641685</v>
+        <v>0.09837504295373938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03186429919112078</v>
+        <v>0.04881618283567978</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5266828554.102817</v>
+        <v>5048039531.781893</v>
       </c>
       <c r="F17" t="n">
-        <v>0.138483649070246</v>
+        <v>0.1753635846133387</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03847504077431299</v>
+        <v>0.04143499863377982</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>70</v>
+      </c>
+      <c r="J17" t="n">
+        <v>144</v>
+      </c>
+      <c r="K17" t="n">
+        <v>126.6532010007319</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3022435742.404841</v>
+        <v>2541962077.333554</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1474005987658304</v>
+        <v>0.1424632604316404</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03315670418434332</v>
+        <v>0.0297175569850015</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1181642838.268547</v>
+        <v>1024126886.179825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1445870264331182</v>
+        <v>0.1444329367082054</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01725670018371037</v>
+        <v>0.02105973777851046</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2622385426.470725</v>
+        <v>2425526649.075314</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1425012305565802</v>
+        <v>0.1406515988315822</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02750919586456189</v>
+        <v>0.0210323261870654</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2280866798.829346</v>
+        <v>1794642705.347613</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07525731263866239</v>
+        <v>0.07318128154060374</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04348561143439755</v>
+        <v>0.03346729203130747</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3075327938.698825</v>
+        <v>3341076242.435066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1065668319907378</v>
+        <v>0.1129995990337176</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03472195225049975</v>
+        <v>0.04821450678409302</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>37</v>
+      </c>
+      <c r="J22" t="n">
+        <v>142</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1344301786.222633</v>
+        <v>1174286777.691138</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1482804048797766</v>
+        <v>0.1491922858961888</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03377795459878841</v>
+        <v>0.04313857472158085</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2872959890.625123</v>
+        <v>3274173564.882681</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1444411745620887</v>
+        <v>0.1231650064723149</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02847164994278438</v>
+        <v>0.02488049394031358</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>142</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1467649373.806948</v>
+        <v>923624272.5108294</v>
       </c>
       <c r="F25" t="n">
-        <v>0.115375571680838</v>
+        <v>0.1152221744229321</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01955321932514468</v>
+        <v>0.02419184229935803</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1094153244.164927</v>
+        <v>1273522142.849171</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07995455799391937</v>
+        <v>0.1040081600945204</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02958058379803372</v>
+        <v>0.02949611105035421</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3752807683.409621</v>
+        <v>3435503551.631028</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1555860762605065</v>
+        <v>0.1375729606260035</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02051575582898396</v>
+        <v>0.02674084673988057</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>57</v>
+      </c>
+      <c r="J27" t="n">
+        <v>143</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3130762058.186401</v>
+        <v>2644345348.289643</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1465973262901464</v>
+        <v>0.1452014998872903</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03981514997774638</v>
+        <v>0.03640044605355193</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4632970333.466187</v>
+        <v>3796110007.91744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1393105627000926</v>
+        <v>0.1078794662160674</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02971102904382337</v>
+        <v>0.03136311143237513</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>134</v>
+      </c>
+      <c r="J29" t="n">
+        <v>145</v>
+      </c>
+      <c r="K29" t="n">
+        <v>165.2742499439056</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1923928864.189996</v>
+        <v>2213057064.536754</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1353104892103497</v>
+        <v>0.1054545914764879</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02603324097556285</v>
+        <v>0.02887392840459543</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1468828259.407355</v>
+        <v>1026881247.440794</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07259372764611056</v>
+        <v>0.0906263515587436</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03328948971157094</v>
+        <v>0.0358131456709597</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1330694796.172915</v>
+        <v>1577143254.749334</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1192521241996872</v>
+        <v>0.1083397821828862</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03570356397104305</v>
+        <v>0.03883539530701097</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3070546316.551374</v>
+        <v>2912624125.038094</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1740267258639603</v>
+        <v>0.1726452223339991</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04297838800273876</v>
+        <v>0.06112124847158849</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1301937686.967868</v>
+        <v>995372221.1523407</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07982050351099938</v>
+        <v>0.07869019261473863</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02312416546093008</v>
+        <v>0.02404465760948149</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>893223470.1935523</v>
+        <v>1050842221.812285</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08492920919480242</v>
+        <v>0.1038443341376631</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03049221908721921</v>
+        <v>0.03923736570626495</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,22 +1697,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3069574804.842403</v>
+        <v>2233420425.670375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1472629839315846</v>
+        <v>0.1709341952811936</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02738959850768366</v>
+        <v>0.01840465718487861</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="n">
+        <v>47.51155941324744</v>
       </c>
     </row>
     <row r="37">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2373134714.555713</v>
+        <v>2916290107.506354</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09164113404519532</v>
+        <v>0.08158161242142013</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03074950897090326</v>
+        <v>0.04138625370352824</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1389292056.499634</v>
+        <v>2122581640.37041</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09272963987295889</v>
+        <v>0.1017026310118895</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02830783385301385</v>
+        <v>0.03167536558815851</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1582478640.827074</v>
+        <v>2158280579.450899</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1862451594777715</v>
+        <v>0.1940847305043833</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02665902358757372</v>
+        <v>0.02916082740705436</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1313882425.939885</v>
+        <v>1738817847.948035</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1289523111804807</v>
+        <v>0.1458272033006554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03643530837384894</v>
+        <v>0.04927698718678603</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2739252504.954385</v>
+        <v>2740316458.866571</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1477482097412035</v>
+        <v>0.1513082305377808</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03276879400781046</v>
+        <v>0.0351590145528884</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4019026967.842176</v>
+        <v>4206760307.931707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1253432330185228</v>
+        <v>0.09985590307782047</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04293482201278886</v>
+        <v>0.03633592876237877</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>53</v>
+      </c>
+      <c r="J42" t="n">
+        <v>145</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2106986617.694991</v>
+        <v>2241629603.553647</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2032371023742749</v>
+        <v>0.1431727846972924</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02076167653245605</v>
+        <v>0.02524475613573096</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1883349785.621691</v>
+        <v>1991731025.042339</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06313109530407689</v>
+        <v>0.07330897804592325</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03279687292850403</v>
+        <v>0.03087343287925333</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1686550203.064047</v>
+        <v>2254553142.51865</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1535428668134856</v>
+        <v>0.1350864531182998</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04399181640272793</v>
+        <v>0.03696383590541866</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4426998167.136667</v>
+        <v>4202413910.509532</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1101238839673285</v>
+        <v>0.1280486751696208</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05943087047511698</v>
+        <v>0.05739954130288587</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>82</v>
+      </c>
+      <c r="J46" t="n">
+        <v>144</v>
+      </c>
+      <c r="K46" t="n">
+        <v>142.7430029253277</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5126439786.579867</v>
+        <v>4672499827.656204</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1605198443156469</v>
+        <v>0.1385047525490284</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03820515383506494</v>
+        <v>0.04700668590169624</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>64</v>
+      </c>
+      <c r="J47" t="n">
+        <v>145</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3420806568.093898</v>
+        <v>4069726536.977298</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1012204527720729</v>
+        <v>0.08721334935831208</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03365746852637203</v>
+        <v>0.03147574559542392</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>61</v>
+      </c>
+      <c r="J48" t="n">
+        <v>144</v>
+      </c>
+      <c r="K48" t="n">
+        <v>143.4831176152015</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1665656363.518478</v>
+        <v>1716080990.380517</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1779086868680988</v>
+        <v>0.1591254958561468</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0414504586363126</v>
+        <v>0.04030825323575939</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3196800438.936452</v>
+        <v>2849970458.332718</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1353463308234674</v>
+        <v>0.114708796095875</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03431833555518418</v>
+        <v>0.04031406380787993</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>975211949.4395208</v>
+        <v>955942803.7125262</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1477694363050694</v>
+        <v>0.1345615328056781</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03628313924947865</v>
+        <v>0.04174100377317657</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5144198576.892388</v>
+        <v>3458367184.908483</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1120079406929483</v>
+        <v>0.1252016748995725</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05977177497583351</v>
+        <v>0.03918151065421548</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>108</v>
+      </c>
+      <c r="J52" t="n">
+        <v>145</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3151384918.144946</v>
+        <v>2656616804.629695</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1456624071690852</v>
+        <v>0.146311527168241</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0348191960412651</v>
+        <v>0.02640168804821305</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>144</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69.37895879471769</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4090835492.80942</v>
+        <v>3197291028.071227</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1294403047489433</v>
+        <v>0.1482716307121439</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04761350765735733</v>
+        <v>0.04080398638449011</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>68</v>
+      </c>
+      <c r="J54" t="n">
+        <v>144</v>
+      </c>
+      <c r="K54" t="n">
+        <v>113.1533076270423</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4150819489.252309</v>
+        <v>3477295143.810523</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1590722071822361</v>
+        <v>0.1645302186858262</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02763417900824458</v>
+        <v>0.02702110995113478</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>67</v>
+      </c>
+      <c r="J55" t="n">
+        <v>144</v>
+      </c>
+      <c r="K55" t="n">
+        <v>121.0346368767844</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1694321716.861922</v>
+        <v>1377530563.524973</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1200022123064695</v>
+        <v>0.1332605332849632</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04499181180704241</v>
+        <v>0.04157523566539335</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3633153535.816469</v>
+        <v>4487513882.157112</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1297334090126935</v>
+        <v>0.1259453170247801</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02265845183487014</v>
+        <v>0.02622494587392754</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>58</v>
+      </c>
+      <c r="J57" t="n">
+        <v>145</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1321600308.091591</v>
+        <v>1806910874.229331</v>
       </c>
       <c r="F58" t="n">
-        <v>0.134295966706682</v>
+        <v>0.1350046105699596</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03218573491305082</v>
+        <v>0.03185637186048089</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3283745716.159025</v>
+        <v>4144279598.879107</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1170310166315595</v>
+        <v>0.1184145467094158</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04609581329729662</v>
+        <v>0.03966366749893322</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>70</v>
+      </c>
+      <c r="J59" t="n">
+        <v>145</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3711198422.499675</v>
+        <v>3320111766.898009</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1854975778641797</v>
+        <v>0.1713545798221639</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02523771802030434</v>
+        <v>0.03347062224319837</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2487236433.22899</v>
+        <v>2453001581.46984</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1512191877508591</v>
+        <v>0.1160555234404351</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02389288831197748</v>
+        <v>0.02926677000109848</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1750756598.717374</v>
+        <v>2039551699.798563</v>
       </c>
       <c r="F62" t="n">
-        <v>0.130178411100287</v>
+        <v>0.1405764441846535</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04094611423380958</v>
+        <v>0.03446595359099537</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4751879645.833496</v>
+        <v>5425377566.647517</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09511735194851034</v>
+        <v>0.09692663539905672</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03204541695977469</v>
+        <v>0.04109775289254818</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>71</v>
+      </c>
+      <c r="J63" t="n">
+        <v>144</v>
+      </c>
+      <c r="K63" t="n">
+        <v>128.5703253739523</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4133248832.752087</v>
+        <v>5354172495.707612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1484301866179633</v>
+        <v>0.1205796906434828</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02722199556910193</v>
+        <v>0.02852731355136865</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>72</v>
+      </c>
+      <c r="J64" t="n">
+        <v>144</v>
+      </c>
+      <c r="K64" t="n">
+        <v>135.0997961214036</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4777913425.806007</v>
+        <v>3621352245.025602</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1158039523464891</v>
+        <v>0.1670819651160134</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03222905568398524</v>
+        <v>0.02609471160553411</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>121</v>
+      </c>
+      <c r="J65" t="n">
+        <v>145</v>
+      </c>
+      <c r="K65" t="n">
+        <v>144.2597377164214</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5594680038.341979</v>
+        <v>5333519328.888885</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1446975605798589</v>
+        <v>0.1123566454599967</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03854485566173578</v>
+        <v>0.03385470991634445</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>71</v>
+      </c>
+      <c r="J66" t="n">
+        <v>145</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3091167455.327124</v>
+        <v>2298971787.444238</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09084297960902052</v>
+        <v>0.08921616367953744</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05090604724578945</v>
+        <v>0.03348859879637877</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3702725334.103867</v>
+        <v>5354324952.633206</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1297923486056217</v>
+        <v>0.14898971916925</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03137391162878234</v>
+        <v>0.03219814038668099</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>73</v>
+      </c>
+      <c r="J68" t="n">
+        <v>144</v>
+      </c>
+      <c r="K68" t="n">
+        <v>132.6129111796516</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1522615141.128519</v>
+        <v>1665176423.725501</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1570421537230321</v>
+        <v>0.17363127593327</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04757063235018034</v>
+        <v>0.04520537253902863</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2913,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2697954230.752403</v>
+        <v>2378315680.056111</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06449894137061829</v>
+        <v>0.07389867325548401</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03171208420438772</v>
+        <v>0.04719843585155752</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19</v>
+      </c>
+      <c r="J70" t="n">
+        <v>144</v>
+      </c>
+      <c r="K70" t="n">
+        <v>56.84999726235857</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3571805073.303585</v>
+        <v>4994517736.664052</v>
       </c>
       <c r="F71" t="n">
-        <v>0.162011067907763</v>
+        <v>0.1530024732620762</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02806305571044155</v>
+        <v>0.02602281370800694</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>115</v>
+      </c>
+      <c r="J71" t="n">
+        <v>145</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2151045495.931672</v>
+        <v>1631299191.621491</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0920762259472787</v>
+        <v>0.06587250405128194</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04595955325798939</v>
+        <v>0.04884960279790829</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2355694362.588905</v>
+        <v>2983161355.291772</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08161333994245265</v>
+        <v>0.1126892045069192</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04596581915336142</v>
+        <v>0.03755737176684565</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2448105894.302796</v>
+        <v>3120382897.812258</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1583037012365384</v>
+        <v>0.1736866482528722</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03450975006004314</v>
+        <v>0.02899963932239508</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1815574084.288918</v>
+        <v>2233451794.069924</v>
       </c>
       <c r="F75" t="n">
-        <v>0.144466746109676</v>
+        <v>0.1333357455068824</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02948936480625264</v>
+        <v>0.03611257182044811</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4227473362.572208</v>
+        <v>4504394593.232231</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09618631805332578</v>
+        <v>0.08807855845572714</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03303198911733352</v>
+        <v>0.02270996604461544</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>66</v>
+      </c>
+      <c r="J76" t="n">
+        <v>145</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2245057958.355743</v>
+        <v>2211728570.243493</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1138675683905534</v>
+        <v>0.1667750950526223</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02085837170363577</v>
+        <v>0.0271612945805707</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3732453334.466333</v>
+        <v>4454252185.822352</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1335191800167995</v>
+        <v>0.1082074151087001</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04755709364548918</v>
+        <v>0.04571607199862328</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>71</v>
+      </c>
+      <c r="J78" t="n">
+        <v>145</v>
+      </c>
+      <c r="K78" t="n">
+        <v>145.5326569037669</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1807889986.170359</v>
+        <v>1535580340.951782</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1294559831615816</v>
+        <v>0.1689780385746629</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0274474162138494</v>
+        <v>0.03123462849608804</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5452789703.572391</v>
+        <v>5227929222.578654</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09013274955358772</v>
+        <v>0.08176633323197638</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03000313064344421</v>
+        <v>0.0286205672816719</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>70</v>
+      </c>
+      <c r="J80" t="n">
+        <v>145</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3620632675.993048</v>
+        <v>3522574290.19455</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1124640430990388</v>
+        <v>0.1320065827980083</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02691307181223074</v>
+        <v>0.02682541985013294</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>66</v>
+      </c>
+      <c r="J81" t="n">
+        <v>145</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5280060092.701193</v>
+        <v>3576141381.357281</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1885797802370348</v>
+        <v>0.2015059103051516</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01778373817160284</v>
+        <v>0.02650936024863106</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>104</v>
+      </c>
+      <c r="J82" t="n">
+        <v>145</v>
+      </c>
+      <c r="K82" t="n">
+        <v>146.6770782992226</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1597504672.636201</v>
+        <v>2452689197.495902</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09680354675092244</v>
+        <v>0.1137299459142843</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04246309902540443</v>
+        <v>0.02744811766021547</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1930305583.984664</v>
+        <v>1906601204.962968</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09687687532221477</v>
+        <v>0.0946631136222273</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03830386243348786</v>
+        <v>0.03471440434026581</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3007750988.183199</v>
+        <v>2239455252.435536</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1278870110499553</v>
+        <v>0.1179293680026807</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05195089158710007</v>
+        <v>0.03444830802590781</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2375130311.601396</v>
+        <v>2541709162.345077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1329109922148489</v>
+        <v>0.1667710408525993</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02461768783601701</v>
+        <v>0.02027295710687777</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1303964997.914462</v>
+        <v>1316338472.514922</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1527638241087209</v>
+        <v>0.1678496892671129</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03255704983744849</v>
+        <v>0.03038631599969591</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3571460140.860144</v>
+        <v>3345798571.8194</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114792570649572</v>
+        <v>0.1688937419708169</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02603299614623598</v>
+        <v>0.02938237552329204</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3510548028.630148</v>
+        <v>3148894914.666338</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002835911051112</v>
+        <v>0.1127688787949942</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03332339975655361</v>
+        <v>0.03568625210405917</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2011226092.46347</v>
+        <v>1344436293.395299</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1167764719770965</v>
+        <v>0.1248206722004992</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04471647527336829</v>
+        <v>0.04921256576906312</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1955681683.8873</v>
+        <v>2014518781.228634</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1769763582790576</v>
+        <v>0.1609943733416417</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0425141973901175</v>
+        <v>0.04980857641378892</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2379059004.940756</v>
+        <v>2150038715.856038</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08680265595758554</v>
+        <v>0.09994786095987443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04291692279432757</v>
+        <v>0.04310193555799161</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3864214449.099268</v>
+        <v>4332140256.206685</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09181748720863352</v>
+        <v>0.102221002494383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04286558580118371</v>
+        <v>0.03767187616579555</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>65</v>
+      </c>
+      <c r="J93" t="n">
+        <v>145</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1716062905.292797</v>
+        <v>1774389883.203279</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1443010491913153</v>
+        <v>0.1625279512569995</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03278398985495414</v>
+        <v>0.04202205065833046</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2561615170.351909</v>
+        <v>2568535449.796369</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1316217780475689</v>
+        <v>0.09095850547735719</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03442635250386577</v>
+        <v>0.04905078312450043</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2239133579.982831</v>
+        <v>1874381126.581775</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1250999459102584</v>
+        <v>0.1076096062205408</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03626473086811596</v>
+        <v>0.04060320263714631</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4626835483.257111</v>
+        <v>3703368959.524287</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1289265319110156</v>
+        <v>0.1179311111762888</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02423547612569619</v>
+        <v>0.02465041944974902</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>69</v>
+      </c>
+      <c r="J97" t="n">
+        <v>145</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3168034177.001848</v>
+        <v>3728149075.329339</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09999272601682245</v>
+        <v>0.1251082281462063</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0309981582458371</v>
+        <v>0.02719050991798902</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="n">
+        <v>145</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3132738139.672544</v>
+        <v>2786936917.062378</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1350531819057762</v>
+        <v>0.1188752551470207</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02255265947536362</v>
+        <v>0.02935255967018569</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4523689404.89486</v>
+        <v>4168755092.769883</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1554040856397602</v>
+        <v>0.1463054774730186</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02182998197099167</v>
+        <v>0.02745982809018548</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>60</v>
+      </c>
+      <c r="J100" t="n">
+        <v>144</v>
+      </c>
+      <c r="K100" t="n">
+        <v>130.489636937175</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2390129386.002547</v>
+        <v>3540734973.970464</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1619978851473174</v>
+        <v>0.1516844008776591</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04115420529187916</v>
+        <v>0.035888336712604</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>145</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
